--- a/templates/dien-mat-troi.xlsx
+++ b/templates/dien-mat-troi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\FileStore\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E409AC82-5CE0-4C32-8A1A-26DE9FB4563C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{605E19EB-8345-49A6-9E4C-B71F13411498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Công ty TNHH MTV Điện lực Đồng Nai</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>thucspc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -557,30 +560,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -602,6 +581,30 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1024,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122399E6-1AE2-469F-9D33-F9331B39F040}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1035,12 +1038,12 @@
     <col min="3" max="3" width="20.296875" style="24" customWidth="1"/>
     <col min="4" max="4" width="21.796875" style="24" customWidth="1"/>
     <col min="5" max="5" width="27.296875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="30.3984375" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.296875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.3984375" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.19921875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="34.69921875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.59765625" style="34" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.3984375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.296875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.3984375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.19921875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="34.69921875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.59765625" style="34" customWidth="1"/>
     <col min="12" max="12" width="8.8984375" style="34" customWidth="1"/>
     <col min="13" max="13" width="13.19921875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.296875" style="34" bestFit="1" customWidth="1"/>
@@ -1061,46 +1064,46 @@
       <c r="C1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1114,59 +1117,59 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1176,35 +1179,34 @@
       <c r="B3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="29" t="str">
-        <f>VLOOKUP(D3,KhachHang,8,0)</f>
-        <v>xx</v>
+      <c r="C3" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="E3" s="36" t="str">
+        <f t="shared" ref="E3:J4" si="1">VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
         <v>Công ty TNHH một thành viên Hoàng Trung Anh</v>
       </c>
-      <c r="F3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="F3" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>58 Phạm Hồng Thái, phường Bến Thành, quận 1, thành phố Hồ Chí Minh, Việt Nam</v>
       </c>
-      <c r="G3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="G3" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>051000X10</v>
       </c>
-      <c r="H3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="H3" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Công ty TNHH Một thành viên Hoàng Trung Anh</v>
       </c>
-      <c r="I3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="I3" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>1017281133</v>
       </c>
-      <c r="J3" s="44" t="str">
-        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+      <c r="J3" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Ngân hàng TMCP Ngoại thương Việt Nam (Vietcombank) – Chi nhánh Nam Sài Gòn</v>
       </c>
       <c r="K3" s="32">
@@ -1233,35 +1235,34 @@
       <c r="B4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="29" t="str">
-        <f>VLOOKUP(D4,KhachHang,8,0)</f>
-        <v>xxx</v>
+      <c r="C4" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="E4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Quỹ tín dụng nhân dân Xuân Định-Phòng Giao dịch Bảo Định</v>
       </c>
-      <c r="F4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="F4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Số 4646 QL1A, khu 1, ấp Bảo Định, xã Xuân Định, huyện Xuân Lộc, tỉnh Đồng Nai</v>
       </c>
-      <c r="G4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="G4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>051651D01</v>
       </c>
-      <c r="H4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="H4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Quỹ Tín dụng nhân dân Xuân Định</v>
       </c>
-      <c r="I4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="I4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>7241100033006</v>
       </c>
-      <c r="J4" s="44" t="str">
-        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+      <c r="J4" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>Ngân hàng TMCP Quân Đội (MBbank) – Chi nhánh Long Khánh</v>
       </c>
       <c r="K4" s="33">
@@ -1304,8 +1305,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="thucspc@gmail.com" xr:uid="{8CD31263-9892-40D4-B56B-16366A973B8A}"/>
-    <hyperlink ref="C4" r:id="rId2" display="thucspc@gmail.com" xr:uid="{61C82A21-BFB0-4611-A989-E2F4436E69AC}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{8CD31263-9892-40D4-B56B-16366A973B8A}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F01D2EC3-A9ED-4029-812D-06143E729F15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1445,36 +1446,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="19"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="E2" s="2"/>
       <c r="G2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="E3" s="2"/>
       <c r="G3" s="3"/>
       <c r="J3" s="2"/>
@@ -1488,23 +1489,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1514,54 +1515,54 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1571,13 +1572,13 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1676,16 +1677,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="17"/>
@@ -1704,26 +1705,26 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="H13" s="37" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="H13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="19"/>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -1752,43 +1753,61 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="H19" s="37" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="H19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="19"/>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="19"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="H20:I20"/>
@@ -1804,24 +1823,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.78" right="0.17" top="0.25" bottom="0.22" header="0.17" footer="0.17"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
